--- a/HLS_man/COP19/COP19_man_timor_leste.xlsx
+++ b/HLS_man/COP19/COP19_man_timor_leste.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B405F1-2186-43E7-A5E2-BF589E17BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833620A-89D1-4A7F-839B-7CDB590F4650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>It is a great honour to be here representing the Government o f Timor-Leste at this igi
 session of the Conference of the Parties to the UNFCCC and 9" Meeting of Parties to
@@ -196,43 +195,19 @@
     <t>prioritarian</t>
   </si>
   <si>
-    <t>source of fiancing from annex 1</t>
-  </si>
-  <si>
-    <t>prioritarian, libertarian</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>mitigation</t>
-  </si>
-  <si>
     <t>adaptation, mitigation</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
-    <t>sufficientarian</t>
-  </si>
-  <si>
-    <t>libertarian</t>
-  </si>
-  <si>
     <t>align with G77 and China, LDC, OASIS</t>
   </si>
   <si>
-    <t>other(vulnerability)</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victimization of LDC by emissions of others. Presenting this as a reason to take on actions follows from the duty not to do harm. </t>
   </si>
   <si>
     <t>We urge, all parties here in Warsaw to take decisions on mitigation efforts, including market and non market mechanisms which will facilitate the parties to reduce their respective green house gas emissions, especially the non Kyoto Protocol
@@ -251,49 +226,97 @@
     <t>measures, financial resources</t>
   </si>
   <si>
-    <t>new policy should recognize country ownership</t>
-  </si>
-  <si>
     <t>financial resources</t>
   </si>
   <si>
-    <t>provide financial support from annex 1 (to non-annex 1), mentioning of country ownership</t>
-  </si>
-  <si>
-    <t>Common but differentiated responsiblities defined as prioritarian</t>
-  </si>
-  <si>
-    <t>We should apply principle
-common but differentiated responsibility and respective capabilities*the new climate
-regime. In this regard, developed country parties should take the lead, including finance,
+    <t>technological resources, financial resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Timor-Leste as part of LDCs, emission level of the country, is very low as of 2,013 Giga
+grams in 2010 which is very low compared to the emitting green house gas countries.</t>
+  </si>
+  <si>
+    <t>Therefore, we need to take actions rather than waiting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, our vulnerability is much higher than those who are the most emitting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It means that, we are victimized by other emitting counties. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.a. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">measures </t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, mitigation</t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription of the need to take on action by all. </t>
+  </si>
+  <si>
+    <t>measures</t>
+  </si>
+  <si>
+    <t>prioritarain</t>
+  </si>
+  <si>
+    <t>Expressing a judgement about the implementation which only be sufficient with support of Annex 1</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement on the need to simplify measures and improving the situation of the worst off. </t>
+  </si>
+  <si>
+    <t>Prescribes distribution to provide financial support from annex 1 to non-annex 1.</t>
+  </si>
+  <si>
+    <t>In this regard, developed country parties should take the lead, including finance,
 technology and capacity building for developing countries to address adaptation
 measures.</t>
   </si>
   <si>
-    <t>UNFCCC agreements and principles, other(CDBR), adaptation</t>
-  </si>
-  <si>
-    <t>technological resources, financial resources</t>
-  </si>
-  <si>
-    <t>distant future</t>
-  </si>
-  <si>
-    <t>Limiting emissions of developed countries by a specific level</t>
-  </si>
-  <si>
-    <t>Multinational (developed countries)</t>
-  </si>
-  <si>
-    <t>Multinational (developing countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Timor-Leste as part of LDCs, emission level of the country, is very low as of 2,013 Giga
-grams in 2010 which is very low compared to the emitting green house gas countries. However, our vulnerability is much higher than those who are the most emitting. It means that, we are victimized by other emitting counties. Therefore, we need to take actions rather than waiting.</t>
-  </si>
-  <si>
-    <t>National actions on mitigation, not defining a specific target. Leaving the freedom to those countries. Libertarian view</t>
+    <t xml:space="preserve">We should apply principle
+common but differentiated responsibility and respective capabilities*the new climate
+regime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescribing the value judgement of the importance of CBDR, which is defined as egalitarian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing moral judgement of developed countries needing to take the lead and support developing countries. </t>
+  </si>
+  <si>
+    <t>adaptation, mitigation, moral responsibility</t>
+  </si>
+  <si>
+    <t>other(general support)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing moral judgement of the necessity of developed countries to support developing countries. </t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing moral judgement of the need to take on action for the benefit of future generations. </t>
+  </si>
+  <si>
+    <t>implementation, action</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, CBDR</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles, CBDR, adaptation</t>
   </si>
 </sst>
 </file>
@@ -681,25 +704,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83" style="1" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -707,7 +730,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>27</v>
@@ -725,10 +748,10 @@
         <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -744,7 +767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -752,10 +775,10 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,7 +786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -771,7 +794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,7 +802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -795,7 +818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -803,7 +826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -811,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -819,7 +842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -827,264 +850,321 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="118.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/HLS_man/COP19/COP19_man_timor_leste.xlsx
+++ b/HLS_man/COP19/COP19_man_timor_leste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1833620A-89D1-4A7F-839B-7CDB590F4650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45852625-EDD9-4828-8EBD-464CB8C83086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>It is a great honour to be here representing the Government o f Timor-Leste at this igi
 session of the Conference of the Parties to the UNFCCC and 9" Meeting of Parties to
@@ -158,40 +158,18 @@
 consensus and right decision we made here, in Warsaw.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>COP19_timor_leste</t>
   </si>
   <si>
-    <t>Scale</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
     <t>Principle</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Relevance Distributive Justice</t>
-  </si>
-  <si>
     <t>30 word explanation</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
@@ -202,9 +180,6 @@
   </si>
   <si>
     <t>align with G77 and China, LDC, OASIS</t>
-  </si>
-  <si>
-    <t>n.a.</t>
   </si>
   <si>
     <t>Notes</t>
@@ -217,19 +192,7 @@
     <t>We believe that, Nationally Appropriate Mitigation Actions (NAMAs) will fully operationalized with strong supports provided by the Annex I countries under the non market mechanism one.</t>
   </si>
   <si>
-    <t>new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>measures, financial resources</t>
-  </si>
-  <si>
     <t>financial resources</t>
-  </si>
-  <si>
-    <t>technological resources, financial resources</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -249,34 +212,13 @@
     <t xml:space="preserve">n.a. </t>
   </si>
   <si>
-    <t xml:space="preserve">measures </t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, mitigation</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t xml:space="preserve">Prescription of the need to take on action by all. </t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>prioritarain</t>
   </si>
   <si>
-    <t>Expressing a judgement about the implementation which only be sufficient with support of Annex 1</t>
-  </si>
-  <si>
     <t>UNFCCC agreements and principles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value judgement on the need to simplify measures and improving the situation of the worst off. </t>
-  </si>
-  <si>
-    <t>Prescribes distribution to provide financial support from annex 1 to non-annex 1.</t>
   </si>
   <si>
     <t>In this regard, developed country parties should take the lead, including finance,
@@ -289,34 +231,85 @@
 regime. </t>
   </si>
   <si>
-    <t xml:space="preserve">prescribing the value judgement of the importance of CBDR, which is defined as egalitarian. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescribing moral judgement of developed countries needing to take the lead and support developing countries. </t>
-  </si>
-  <si>
-    <t>adaptation, mitigation, moral responsibility</t>
-  </si>
-  <si>
-    <t>other(general support)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescribing moral judgement of the necessity of developed countries to support developing countries. </t>
-  </si>
-  <si>
     <t>utilitarian</t>
   </si>
   <si>
     <t xml:space="preserve">Prescribing moral judgement of the need to take on action for the benefit of future generations. </t>
   </si>
   <si>
-    <t>implementation, action</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, CBDR</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, CBDR, adaptation</t>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing need to take action. No specific distribution highlighted. </t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing moral judgement of developed countries needing to take the lead with specific focus on the support of developing countries. </t>
+  </si>
+  <si>
+    <t>emission targets</t>
+  </si>
+  <si>
+    <t>mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the responsiblity to reduce emissions. Motivation can be interpreted in multiple ways. </t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription with explicit focus on the support of non-annex I parties. </t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t>Expressing a judgement about the implementation which only be sufficient with support of Annex 1.</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need to take on action, normative element in must. No specific motivation or shape highlighted. </t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value judgement on the need to simplify measures and improving the situation by developing countries, preferred shape is equity, recognizing differences. Motivation to help the worst off. </t>
+  </si>
+  <si>
+    <t>financial mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing a redistribution of financial resources from annex I to others, but no specific motivation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribes financial redistribution in order to enable developing country parties ot implement actions. Shape is based on making a distinction between countries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prescribing the value judgement of the importance of CBDR, which is defined as egalitarian motivated by the idea of minimizing inequalities.  </t>
+  </si>
+  <si>
+    <t>Request implies moral obligation. Motivation can be interpreted in multiple ways</t>
+  </si>
+  <si>
+    <t>proportional to commitments</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy</t>
   </si>
 </sst>
 </file>
@@ -704,471 +697,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="83" style="1" customWidth="1"/>
-    <col min="2" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="5" width="23.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
+      <c r="B24">
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
+      <c r="B26">
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
-        <v>32</v>
+      <c r="B33">
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HLS_man/COP19/COP19_man_timor_leste.xlsx
+++ b/HLS_man/COP19/COP19_man_timor_leste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45852625-EDD9-4828-8EBD-464CB8C83086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AA30D1-CA57-4EAD-8691-2272F0904A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>It is a great honour to be here representing the Government o f Timor-Leste at this igi
 session of the Conference of the Parties to the UNFCCC and 9" Meeting of Parties to
@@ -700,8 +700,8 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,6 +1053,9 @@
       <c r="D27" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F27" t="s">
         <v>50</v>
       </c>
